--- a/biology/Botanique/Nicholas_Longworth_I/Nicholas_Longworth_I.xlsx
+++ b/biology/Botanique/Nicholas_Longworth_I/Nicholas_Longworth_I.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicholas Longworth (16 janvier 1783 - 10 février 1863) est un juriste, un banquier américain, un vinificateur et le fondateur de la famille Longhworth (Ohio). Il était une figure influente des débuts de la viticulture américaine en popularisant le cépage catawba et la production d'un vin pétillant, dans la vallée de l'Ohio.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Longworth est né à Newark dans le New Jersey le 16 janvier 1783. Il déménage à Cincinnati (Ohio) en 1804, où il se marie en 1807. Sa résidence, inspirée de l'architecture grecque, est actuellement un bâtiment protégé qui abrite le musée d'art de Cincinnati. Nicholas Longworth a étudié le droit auprès du juriste Jacob Burnet rédacteur de la 1ère constitution de l'Ohio et également natif de Newark[1]. Il est l'arrière grand-père de Nick Longworth, président républicain de la Chambre des représentants et gendre de Théodore Roosevelt.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longworth est né à Newark dans le New Jersey le 16 janvier 1783. Il déménage à Cincinnati (Ohio) en 1804, où il se marie en 1807. Sa résidence, inspirée de l'architecture grecque, est actuellement un bâtiment protégé qui abrite le musée d'art de Cincinnati. Nicholas Longworth a étudié le droit auprès du juriste Jacob Burnet rédacteur de la 1ère constitution de l'Ohio et également natif de Newark. Il est l'arrière grand-père de Nick Longworth, président républicain de la Chambre des représentants et gendre de Théodore Roosevelt.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Le viticulteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pressentant que Cincinnati serait un emplacement idéal pour la vigne, il planta un vignoble sur les collines à proximité de la ville, sur le mont Adams et débuta l'un production d'un vin pétillant, en utilisant la méthode champenoise.
 Entre 1830 et 1850, les vins calmes et mousseux de Longworth sont vendus de la Californie à l'Europe où il reçoit des critiques positives dans la presse. Dans les années 1850, un journaliste anglais du Illustrated London News compare le catawba blanc (vin calme) aux  vins blancs de la vallée du Rhin et le catawba pétillant au champagne.
